--- a/biology/Botanique/Quercus_ithaburensis/Quercus_ithaburensis.xlsx
+++ b/biology/Botanique/Quercus_ithaburensis/Quercus_ithaburensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus ithaburensis, aussi appelé chêne du mont Thabor[1], chêne velani ou chêne de Grèce, est une espèce d'arbre de la famille des Fagacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus ithaburensis, aussi appelé chêne du mont Thabor, chêne velani ou chêne de Grèce, est une espèce d'arbre de la famille des Fagacées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve dans le Sud-Est de l'Europe (Italie, Grèce, Albanie) ainsi qu'au Moyen-Orient (Liban, Israël, Syrie, Turquie)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans le Sud-Est de l'Europe (Italie, Grèce, Albanie) ainsi qu'au Moyen-Orient (Liban, Israël, Syrie, Turquie).
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chêne du mont Thabor peut atteindre 10 mètres de haut et faire jusqu'à 6 mètres de circonférence[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chêne du mont Thabor peut atteindre 10 mètres de haut et faire jusqu'à 6 mètres de circonférence.
 L'écorce est dure et profondément sillonnée, et a une couleur intermédiaire entre le brun et le gris foncé.
-Les feuilles font de 5 à 10 centimètres de long et sont dentées[4].
+Les feuilles font de 5 à 10 centimètres de long et sont dentées.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Quercus ithaburensis subsp. macrolepis (Kotschy) Hedge &amp; Yalt.</t>
         </is>
@@ -605,11 +623,13 @@
           <t>Utilisation par l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a retrouvé sur les sites archéologiques du pont des Filles de Jacob et de la grotte de Kébara des fortes indications de consommation humaine de glands de Quercus ithaburensis datant du Paléolithique[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a retrouvé sur les sites archéologiques du pont des Filles de Jacob et de la grotte de Kébara des fortes indications de consommation humaine de glands de Quercus ithaburensis datant du Paléolithique.
 Il a été traditionnellement utilisé par les locaux, aussi bien pour son bois que pour ses vertus médicinales. Il n'a cependant pas été cultivé. 
-Selon Jared Diamond, la raison vient du fait que l'amertume des glands est un caractère contrôlé par un grand nombre de gènes, contrairement par exemple aux fruits de l’amandier, ce qui rendait sa culture compliquée[4].
+Selon Jared Diamond, la raison vient du fait que l'amertume des glands est un caractère contrôlé par un grand nombre de gènes, contrairement par exemple aux fruits de l’amandier, ce qui rendait sa culture compliquée.
 </t>
         </is>
       </c>
